--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -1971,7 +1971,7 @@
   </sheetPr>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2609,7 +2609,7 @@
   </sheetPr>
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2670,7 +2670,7 @@
     <col min="55" max="55" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -3700,7 +3700,7 @@
     <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -923,7 +923,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,7 +940,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -948,12 +948,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFd9d9d9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1170,7 +1164,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1199,61 +1193,61 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="15" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1591,8 +1585,8 @@
     <col min="16" max="16" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -1971,7 +1965,7 @@
   </sheetPr>
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2609,7 +2603,7 @@
   </sheetPr>
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2670,7 +2664,7 @@
     <col min="55" max="55" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="11" t="s">
         <v>37</v>
       </c>
@@ -2837,7 +2831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="7" t="s">
         <v>89</v>
       </c>
@@ -3004,7 +2998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7" t="s">
         <v>108</v>
       </c>
@@ -3171,7 +3165,7 @@
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="7" t="s">
         <v>89</v>
       </c>
@@ -3338,7 +3332,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="7" t="s">
         <v>108</v>
       </c>
@@ -3505,7 +3499,7 @@
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1480" yWindow="1480" windowWidth="18000" windowHeight="11170" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -30,20 +32,25 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFD9D9D9"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Aptos Narrow"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FFd9d9d9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -59,50 +66,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF92d050"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFffc000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF833C0C"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FF833c0c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFff0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -115,16 +103,14 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -136,9 +122,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,30 +146,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -189,52 +153,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -311,10 +313,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -341,116 +343,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,162 +430,164 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -627,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,102 +606,102 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>Key IDs</t>
         </is>
       </c>
-      <c r="B1" s="15" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Director</t>
         </is>
       </c>
-      <c r="C1" s="15" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>ADM</t>
         </is>
       </c>
-      <c r="D1" s="15" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Team Name</t>
         </is>
       </c>
-      <c r="E1" s="15" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="15" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Onsite</t>
         </is>
       </c>
-      <c r="G1" s="15" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Offshore</t>
         </is>
       </c>
-      <c r="H1" s="15" t="inlineStr">
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>KT Start Date</t>
         </is>
       </c>
-      <c r="I1" s="15" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>KT End Date</t>
         </is>
       </c>
-      <c r="J1" s="15" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>CW ID</t>
         </is>
       </c>
-      <c r="K1" s="15" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>ADID</t>
         </is>
       </c>
-      <c r="L1" s="15" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>RSA</t>
         </is>
       </c>
-      <c r="M1" s="15" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>CitrixLaptop</t>
         </is>
       </c>
-      <c r="N1" s="15" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Knowledge Acquisition</t>
         </is>
       </c>
-      <c r="O1" s="15" t="inlineStr">
+      <c r="O1" s="25" t="inlineStr">
         <is>
           <t>Assisted Perform</t>
         </is>
       </c>
-      <c r="P1" s="15" t="inlineStr">
+      <c r="P1" s="25" t="inlineStr">
         <is>
           <t>Independent Perform</t>
         </is>
       </c>
-      <c r="Q1" s="15" t="inlineStr">
+      <c r="Q1" s="25" t="inlineStr">
         <is>
           <t>Steady State</t>
         </is>
       </c>
-      <c r="R1" s="15" t="inlineStr">
+      <c r="R1" s="25" t="inlineStr">
         <is>
           <t>Billing Start Date</t>
         </is>
       </c>
-      <c r="S1" s="15" t="inlineStr">
+      <c r="S1" s="25" t="inlineStr">
         <is>
           <t>Key Updates</t>
         </is>
       </c>
-      <c r="T1" s="15" t="inlineStr">
+      <c r="T1" s="25" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -1076,50 +1046,6 @@
           <t>Incumbent disengagement date changed to 6/28 to accommodate release schedule planned to be performed by incumbent, however steady state is negotiated to begin from 5/7 for TechM.</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ProjectName_06</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Appa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Amma</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Team 6</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1138,155 +1064,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>TechM mail Id</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Profile Link</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Email Id</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Mobile</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Date of Joining</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Customer Billing Start date</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="25" t="inlineStr">
         <is>
           <t>Tech M Interview Date</t>
         </is>
       </c>
-      <c r="P1" s="7" t="inlineStr">
+      <c r="P1" s="25" t="inlineStr">
         <is>
           <t>Interview Feedback Link</t>
         </is>
       </c>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="Q1" s="25" t="inlineStr">
         <is>
           <t>Customer Interview Date</t>
         </is>
       </c>
-      <c r="R1" s="7" t="inlineStr">
+      <c r="R1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Customer Feedback </t>
         </is>
       </c>
-      <c r="S1" s="7" t="inlineStr">
+      <c r="S1" s="25" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="25" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="U1" s="7" t="inlineStr">
+      <c r="U1" s="25" t="inlineStr">
         <is>
           <t>Remarks2</t>
         </is>
       </c>
-      <c r="V1" s="7" t="inlineStr">
+      <c r="V1" s="25" t="inlineStr">
         <is>
           <t>Sourced to Client date</t>
         </is>
       </c>
-      <c r="W1" s="7" t="inlineStr">
+      <c r="W1" s="25" t="inlineStr">
         <is>
           <t>Transition Month</t>
         </is>
       </c>
-      <c r="X1" s="7" t="inlineStr">
+      <c r="X1" s="25" t="inlineStr">
         <is>
           <t>ADM</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
+      <c r="Y1" s="25" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="Z1" s="7" t="inlineStr">
+      <c r="Z1" s="25" t="inlineStr">
         <is>
           <t>App Name</t>
         </is>
       </c>
-      <c r="AA1" s="7" t="inlineStr">
+      <c r="AA1" s="25" t="inlineStr">
         <is>
           <t>Skill</t>
         </is>
       </c>
-      <c r="AB1" s="7" t="inlineStr">
+      <c r="AB1" s="25" t="inlineStr">
         <is>
           <t>Technology Skill</t>
         </is>
       </c>
-      <c r="AC1" s="7" t="inlineStr">
+      <c r="AC1" s="25" t="inlineStr">
         <is>
           <t>Skill Level</t>
         </is>
       </c>
-      <c r="AD1" s="7" t="inlineStr">
+      <c r="AD1" s="25" t="inlineStr">
         <is>
           <t>FTE/Subcon</t>
         </is>
@@ -2003,610 +1929,780 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC7"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="32.81640625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="19.08984375" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.90625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25.1796875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.81640625" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="15.08984375" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="36.6328125" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="12.26953125" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="13.1796875" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="38" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="19.453125" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="10.453125" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18.81640625" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="22.08984375" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="21.26953125" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="11.54296875" customWidth="1" min="26" max="26"/>
-    <col width="13.08984375" bestFit="1" customWidth="1" min="27" max="27"/>
-    <col width="11.81640625" bestFit="1" customWidth="1" min="28" max="28"/>
-    <col width="21.36328125" bestFit="1" customWidth="1" min="29" max="29"/>
-    <col width="12.6328125" bestFit="1" customWidth="1" min="30" max="30"/>
-    <col width="16.08984375" bestFit="1" customWidth="1" min="31" max="31"/>
-    <col width="24.54296875" bestFit="1" customWidth="1" min="32" max="32"/>
-    <col width="10.6328125" bestFit="1" customWidth="1" min="33" max="33"/>
-    <col width="14.26953125" bestFit="1" customWidth="1" min="35" max="35"/>
-    <col width="21.90625" bestFit="1" customWidth="1" min="36" max="36"/>
-    <col width="23.7265625" bestFit="1" customWidth="1" min="37" max="37"/>
-    <col width="43.7265625" bestFit="1" customWidth="1" min="38" max="38"/>
-    <col width="28.6328125" bestFit="1" customWidth="1" min="39" max="39"/>
-    <col width="11.26953125" bestFit="1" customWidth="1" min="40" max="40"/>
-    <col width="22.453125" bestFit="1" customWidth="1" min="41" max="41"/>
-    <col width="18.26953125" bestFit="1" customWidth="1" min="42" max="42"/>
-    <col width="13.6328125" bestFit="1" customWidth="1" min="43" max="43"/>
-    <col width="18.08984375" bestFit="1" customWidth="1" min="45" max="45"/>
-    <col width="17" bestFit="1" customWidth="1" min="46" max="47"/>
-    <col width="22.08984375" bestFit="1" customWidth="1" min="48" max="48"/>
-    <col width="11.81640625" bestFit="1" customWidth="1" min="49" max="49"/>
-    <col width="17" bestFit="1" customWidth="1" min="50" max="50"/>
-    <col width="22.08984375" bestFit="1" customWidth="1" min="51" max="51"/>
-    <col width="15.6328125" bestFit="1" customWidth="1" min="52" max="52"/>
-    <col width="11.90625" bestFit="1" customWidth="1" min="53" max="53"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>Profile uploaded in Large Deal Coupa</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Details sent to VAIRA</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Tech M allocation</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Coupa Request Sent to PMO</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Emp ID</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>Band</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Resource Name</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="I1" s="8" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>App Name</t>
         </is>
       </c>
-      <c r="J1" s="8" t="inlineStr">
+      <c r="J1" s="25" t="inlineStr">
         <is>
           <t>Skills</t>
         </is>
       </c>
-      <c r="K1" s="8" t="inlineStr">
+      <c r="K1" s="25" t="inlineStr">
         <is>
           <t>Tech M E-mail ID</t>
         </is>
       </c>
-      <c r="L1" s="8" t="inlineStr">
+      <c r="L1" s="25" t="inlineStr">
         <is>
           <t>UPS E-mail ID</t>
         </is>
       </c>
-      <c r="M1" s="8" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Phone #</t>
         </is>
       </c>
-      <c r="N1" s="8" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>New RM change is completed - Yes or NO</t>
         </is>
       </c>
-      <c r="O1" s="8" t="inlineStr">
+      <c r="O1" s="25" t="inlineStr">
         <is>
           <t>VPN Ticket ID</t>
         </is>
       </c>
-      <c r="P1" s="8" t="inlineStr">
+      <c r="P1" s="25" t="inlineStr">
         <is>
           <t>Citrix Ticket ID</t>
         </is>
       </c>
-      <c r="Q1" s="8" t="inlineStr">
+      <c r="Q1" s="25" t="inlineStr">
         <is>
           <t>RM/IBU Head approval - Aproved/ Pending</t>
         </is>
       </c>
-      <c r="R1" s="10" t="inlineStr">
+      <c r="R1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">CW ID </t>
         </is>
       </c>
-      <c r="S1" s="10" t="inlineStr">
+      <c r="S1" s="25" t="inlineStr">
         <is>
           <t>Challenge Q&amp;A Setup</t>
         </is>
       </c>
-      <c r="T1" s="10" t="inlineStr">
+      <c r="T1" s="25" t="inlineStr">
         <is>
           <t>UPS E-mail access</t>
         </is>
       </c>
-      <c r="U1" s="10" t="inlineStr">
+      <c r="U1" s="25" t="inlineStr">
         <is>
           <t>AD ID</t>
         </is>
       </c>
-      <c r="V1" s="10" t="inlineStr">
+      <c r="V1" s="25" t="inlineStr">
         <is>
           <t>UPS Laptop</t>
         </is>
       </c>
-      <c r="W1" s="10" t="inlineStr">
+      <c r="W1" s="25" t="inlineStr">
         <is>
           <t>Static IP Whitelisting</t>
         </is>
       </c>
-      <c r="X1" s="8" t="inlineStr">
+      <c r="X1" s="25" t="inlineStr">
         <is>
           <t>Citrix installed in system</t>
         </is>
       </c>
-      <c r="Y1" s="8" t="inlineStr">
+      <c r="Y1" s="25" t="inlineStr">
         <is>
           <t>VPN installed in system</t>
         </is>
       </c>
-      <c r="Z1" s="10" t="inlineStr">
+      <c r="Z1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">APRS e-mail </t>
         </is>
       </c>
-      <c r="AA1" s="10" t="inlineStr">
+      <c r="AA1" s="25" t="inlineStr">
         <is>
           <t>RSA activation</t>
         </is>
       </c>
-      <c r="AB1" s="10" t="inlineStr">
+      <c r="AB1" s="25" t="inlineStr">
         <is>
           <t>Citrix license</t>
         </is>
       </c>
-      <c r="AC1" s="10" t="inlineStr">
+      <c r="AC1" s="25" t="inlineStr">
         <is>
           <t>Check point VPN Access</t>
         </is>
       </c>
-      <c r="AD1" s="8" t="inlineStr">
+      <c r="AD1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Zscalar policy </t>
         </is>
       </c>
-      <c r="AE1" s="8" t="inlineStr">
+      <c r="AE1" s="25" t="inlineStr">
         <is>
           <t>UPS Teams access</t>
         </is>
       </c>
-      <c r="AF1" s="8" t="inlineStr">
+      <c r="AF1" s="25" t="inlineStr">
         <is>
           <t>Remote Desktop IP address</t>
         </is>
       </c>
-      <c r="AG1" s="8" t="inlineStr">
+      <c r="AG1" s="25" t="inlineStr">
         <is>
           <t>ITAS Access</t>
         </is>
       </c>
-      <c r="AH1" s="8" t="inlineStr">
+      <c r="AH1" s="25" t="inlineStr">
         <is>
           <t>PAR ID</t>
         </is>
       </c>
-      <c r="AI1" s="14" t="inlineStr">
+      <c r="AI1" s="25" t="inlineStr">
         <is>
           <t>Coupa end date</t>
         </is>
       </c>
-      <c r="AJ1" s="8" t="inlineStr">
+      <c r="AJ1" s="25" t="inlineStr">
         <is>
           <t>Data Protection (SS1369)</t>
         </is>
       </c>
-      <c r="AK1" s="8" t="inlineStr">
+      <c r="AK1" s="25" t="inlineStr">
         <is>
           <t>Sexual Harassment (POSH)</t>
         </is>
       </c>
-      <c r="AL1" s="8" t="inlineStr">
+      <c r="AL1" s="25" t="inlineStr">
         <is>
           <t>Code of Ethical Business Conduct Mandate (CEBC)</t>
         </is>
       </c>
-      <c r="AM1" s="8" t="inlineStr">
+      <c r="AM1" s="25" t="inlineStr">
         <is>
           <t>Securing Our Business (SS18449)</t>
         </is>
       </c>
-      <c r="AN1" s="8" t="inlineStr">
+      <c r="AN1" s="25" t="inlineStr">
         <is>
           <t>Logistics 101</t>
         </is>
       </c>
-      <c r="AO1" s="8" t="inlineStr">
+      <c r="AO1" s="25" t="inlineStr">
         <is>
           <t>Hacker Rank Certification</t>
         </is>
       </c>
-      <c r="AP1" s="8" t="inlineStr">
+      <c r="AP1" s="25" t="inlineStr">
         <is>
           <t>Added in Vaira's List</t>
         </is>
       </c>
-      <c r="AQ1" s="8" t="inlineStr">
+      <c r="AQ1" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">Lead Resource </t>
         </is>
       </c>
-      <c r="AR1" s="8" t="inlineStr">
+      <c r="AR1" s="25" t="inlineStr">
         <is>
           <t>2nd POC</t>
         </is>
       </c>
-      <c r="AS1" s="8" t="inlineStr">
+      <c r="AS1" s="25" t="inlineStr">
         <is>
           <t>TechM Laptop (Y/N)</t>
         </is>
       </c>
-      <c r="AT1" s="8" t="inlineStr">
+      <c r="AT1" s="25" t="inlineStr">
         <is>
           <t>Citrix approval-ISG</t>
         </is>
       </c>
-      <c r="AU1" s="8" t="inlineStr">
+      <c r="AU1" s="25" t="inlineStr">
         <is>
           <t>Citrix approval-RM</t>
         </is>
       </c>
-      <c r="AV1" s="8" t="inlineStr">
+      <c r="AV1" s="25" t="inlineStr">
         <is>
           <t>Citrix approval-IBU Head</t>
         </is>
       </c>
-      <c r="AW1" s="12" t="inlineStr">
+      <c r="AW1" s="25" t="inlineStr">
         <is>
           <t>VPN</t>
         </is>
       </c>
-      <c r="AX1" s="8" t="inlineStr">
-        <is>
-          <t>Citrix approval-RM</t>
-        </is>
-      </c>
-      <c r="AY1" s="8" t="inlineStr">
-        <is>
-          <t>Citrix approval-IBU Head</t>
-        </is>
-      </c>
-      <c r="AZ1" s="8" t="inlineStr">
+      <c r="AX1" s="25" t="inlineStr">
+        <is>
+          <t>Citrix approval-RM.1</t>
+        </is>
+      </c>
+      <c r="AY1" s="25" t="inlineStr">
+        <is>
+          <t>Citrix approval-IBU Head.1</t>
+        </is>
+      </c>
+      <c r="AZ1" s="25" t="inlineStr">
         <is>
           <t>UPS Laptop (Y/N)</t>
         </is>
       </c>
-      <c r="BA1" s="8" t="inlineStr">
+      <c r="BA1" s="25" t="inlineStr">
         <is>
           <t>KT Start Date</t>
         </is>
       </c>
-      <c r="BB1" s="12" t="inlineStr">
+      <c r="BB1" s="25" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
       </c>
-      <c r="BC1" s="12" t="inlineStr">
+      <c r="BC1" s="25" t="inlineStr">
         <is>
           <t>Project</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Coupa Request</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
-      <c r="O2" s="9" t="n"/>
-      <c r="P2" s="9" t="n"/>
-      <c r="Q2" s="9" t="n"/>
-      <c r="R2" s="9" t="n"/>
-      <c r="S2" s="9" t="n"/>
-      <c r="T2" s="9" t="n"/>
-      <c r="U2" s="9" t="n"/>
-      <c r="V2" s="9" t="n"/>
-      <c r="W2" s="9" t="n"/>
-      <c r="X2" s="9" t="n"/>
-      <c r="Y2" s="9" t="n"/>
-      <c r="Z2" s="9" t="n"/>
-      <c r="AA2" s="9" t="n"/>
-      <c r="AB2" s="9" t="n"/>
-      <c r="AC2" s="9" t="n"/>
-      <c r="AD2" s="9" t="n"/>
-      <c r="AE2" s="9" t="n"/>
-      <c r="AF2" s="9" t="n"/>
-      <c r="AG2" s="9" t="n"/>
-      <c r="AH2" s="9" t="n"/>
-      <c r="AI2" s="9" t="n"/>
-      <c r="AJ2" s="9" t="n"/>
-      <c r="AK2" s="9" t="n"/>
-      <c r="AL2" s="9" t="n"/>
-      <c r="AM2" s="9" t="n"/>
-      <c r="AN2" s="9" t="n"/>
-      <c r="AO2" s="9" t="n"/>
-      <c r="AP2" s="9" t="n"/>
-      <c r="AQ2" s="9" t="n"/>
-      <c r="AR2" s="9" t="n"/>
-      <c r="AS2" s="9" t="n"/>
-      <c r="AT2" s="9" t="n"/>
-      <c r="AU2" s="9" t="n"/>
-      <c r="AV2" s="9" t="n"/>
-      <c r="AW2" s="3" t="inlineStr">
-        <is>
-          <t>approval-ISG</t>
-        </is>
-      </c>
-      <c r="AX2" s="9" t="n"/>
-      <c r="AY2" s="9" t="n"/>
-      <c r="AZ2" s="9" t="n"/>
-      <c r="BA2" s="9" t="n"/>
-      <c r="BB2" s="13" t="n"/>
-      <c r="BC2" s="13" t="n"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EMP001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>john.doe@techm.com</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>john.doe@ups.com</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>123-456-7890</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>VPN001</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>CIT001</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>CW001</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>AD001</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>APRS001</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>192.168.0.1</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>PAR001</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.291000</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:44.927000</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>All good</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Project1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>0.5</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EMP001</t>
+          <t>EMP002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Jane Smith</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>App2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>jane.smith@techm.com</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>jane.smith@ups.com</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>234-567-8901</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>VPN002</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>CIT002</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>CW002</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>AD002</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>APRS002</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>192.168.0.2</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>PAR002</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.322000</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>App1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Java</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>john.doe@techm.com</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>john.doe@ups.com</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>123-456-7890</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>VPN001</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>CIT001</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>CW001</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>AD001</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>APRS001</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>192.168.0.1</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>PAR001</t>
-        </is>
-      </c>
-      <c r="AI3" s="5" t="n">
-        <v>45291</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Jane Smith</t>
-        </is>
-      </c>
       <c r="AR3" t="inlineStr">
         <is>
           <t>Alice Johnson</t>
@@ -2614,1199 +2710,882 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BA3" s="5" t="n">
-        <v>44927</v>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>All good</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:44.958000</t>
         </is>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>Project1</t>
+          <t>Project2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>0.3</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>EMP002</t>
+          <t>EMP003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Bob Brown</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>App3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>JavaScript</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>bob.brown@techm.com</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>bob.brown@ups.com</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>345-678-9012</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>VPN003</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>CIT003</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>CW003</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>AD003</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>APRS003</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>192.168.0.3</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>PAR003</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.350000</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
           <t>Jane Smith</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>London</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>App2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Python</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>jane.smith@techm.com</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>jane.smith@ups.com</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>234-567-8901</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>VPN002</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>CIT002</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>CW002</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>AD002</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>APRS002</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>192.168.0.2</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>PAR002</t>
-        </is>
-      </c>
-      <c r="AI4" s="5" t="n">
-        <v>45322</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Alice Johnson</t>
-        </is>
-      </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BA4" s="5" t="n">
-        <v>44958</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:44.986000</t>
+        </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Some remarks</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>Project2</t>
+          <t>Project3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>0.7</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EMP003</t>
+          <t>EMP004</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>App3</t>
+          <t>App4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>JavaScript</t>
+          <t>C++</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>bob.brown@techm.com</t>
+          <t>alice.johnson@techm.com</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>bob.brown@ups.com</t>
+          <t>alice.johnson@ups.com</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>345-678-9012</t>
+          <t>456-789-0123</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>VPN003</t>
+          <t>VPN004</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>CIT003</t>
+          <t>CIT004</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>CW003</t>
+          <t>CW004</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>AD003</t>
+          <t>AD004</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>APRS003</t>
+          <t>APRS004</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>192.168.0.3</t>
+          <t>192.168.0.4</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>PAR003</t>
-        </is>
-      </c>
-      <c r="AI5" s="5" t="n">
-        <v>45350</v>
+          <t>PAR004</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.382000</t>
+        </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
           <t>Jane Smith</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>Approved</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BA5" s="5" t="n">
-        <v>44986</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.017000</t>
+        </is>
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>Some remarks</t>
+          <t>No remarks</t>
         </is>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>Project3</t>
+          <t>Project4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0.4</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EMP004</t>
+          <t>EMP005</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>Alice White</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>App4</t>
+          <t>App5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>C++</t>
+          <t>Go</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>alice.johnson@techm.com</t>
+          <t>alice.white@techm.com</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>alice.johnson@ups.com</t>
+          <t>alice.white@ups.com</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>456-789-0123</t>
+          <t>567-890-1234</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>VPN004</t>
+          <t>VPN005</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>CIT004</t>
+          <t>CIT005</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>CW004</t>
+          <t>CW005</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>AD004</t>
+          <t>AD005</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>APRS004</t>
+          <t>APRS005</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>192.168.0.4</t>
+          <t>192.168.0.5</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>PAR004</t>
-        </is>
-      </c>
-      <c r="AI6" s="5" t="n">
-        <v>45382</v>
+          <t>PAR005</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.412000</t>
+        </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Bob Brown</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Approved</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BA6" s="5" t="n">
-        <v>45017</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>1969-12-31 16:00:45.047000</t>
+        </is>
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>No remarks</t>
+          <t>All good</t>
         </is>
       </c>
       <c r="BC6" t="inlineStr">
-        <is>
-          <t>Project4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>EMP005</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Alice White</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Paris</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>App5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Go</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>alice.white@techm.com</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>alice.white@ups.com</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>567-890-1234</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>VPN005</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>CIT005</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>CW005</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>AD005</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>APRS005</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>192.168.0.5</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>PAR005</t>
-        </is>
-      </c>
-      <c r="AI7" s="5" t="n">
-        <v>45412</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Jane Smith</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Bob Brown</t>
-        </is>
-      </c>
-      <c r="AS7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AU7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BA7" s="5" t="n">
-        <v>45047</v>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>All good</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
         <is>
           <t>Project5</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="AU1:AU2"/>
-    <mergeCell ref="AB1:AB2"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="AN1:AN2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="AP1:AP2"/>
-    <mergeCell ref="BB1:BB2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AC1:AC2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AE1:AE2"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AM1:AM2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="AO1:AO2"/>
-    <mergeCell ref="AY1:AY2"/>
-    <mergeCell ref="AQ1:AQ2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="AR1:AR2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AT1:AT2"/>
-    <mergeCell ref="BA1:BA2"/>
-    <mergeCell ref="AV1:AV2"/>
-    <mergeCell ref="BC1:BC2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AX1:AX2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="AZ1:AZ2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="AS1:AS2"/>
-    <mergeCell ref="AI1:AI2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -3816,307 +3595,297 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="58" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="25" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="B1" s="25" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="C1" s="25" t="inlineStr">
         <is>
           <t>Resource Name</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>Issue Description</t>
         </is>
       </c>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="E1" s="25" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="F1" s="25" t="inlineStr">
         <is>
           <t>TechM - SPOC</t>
         </is>
       </c>
-      <c r="H1" s="4" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="I1" s="4" t="inlineStr">
+      <c r="H1" s="25" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="I1" s="25" t="inlineStr">
         <is>
           <t>Resolution Comments</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>45292</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-01-01 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Team A</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Issue with application login</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Issue with application login</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Mike Johnson</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mike Johnson</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>Investigating the root cause</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="n">
-        <v>45293</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-01-02 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Team B</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>Database connectivity issue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Database connectivity issue</t>
+          <t>Bob Brown</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>Alice White</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alice White</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>Checking database configurations</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <v>45294</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-01-03 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Team C</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Team C</t>
+          <t>Bob Brown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>Slow application performance</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Slow application performance</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Resolved</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>Optimized the database queries</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>45295</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-01-04 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Team D</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Team D</t>
+          <t>Alice Johnson</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alice Johnson</t>
+          <t>API integration failure</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>API integration failure</t>
+          <t>John Doe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>John Doe</t>
+          <t>Jane Smith</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Jane Smith</t>
+          <t>High</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>Working with third-party vendor</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>45296</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-01-05 00:00:00.000000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Team E</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Team E</t>
+          <t>Alice White</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Alice White</t>
+          <t>User interface bug in dashboard</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>User interface bug in dashboard</t>
+          <t>Mike Johnson</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mike Johnson</t>
+          <t>Bob Brown</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bob Brown</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>In Progress</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>Redesigning the UI component</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -1046,6 +1046,50 @@
           <t>Incumbent disengagement date changed to 6/28 to accommodate release schedule planned to be performed by incumbent, however steady state is negotiated to begin from 5/7 for TechM.</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Project Name _06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santhosh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vaibhav</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,6 +1090,182 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project 7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oliver</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Team 7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Project 8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sketch </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>For Real</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Team 8</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Project 9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Addison's Car</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Team 9</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Project 10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandon Aiyuk's </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Trade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Team 10</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -1046,6 +1046,226 @@
           <t>Incumbent disengagement date changed to 6/28 to accommodate release schedule planned to be performed by incumbent, however steady state is negotiated to begin from 5/7 for TechM.</t>
         </is>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Project Name _06</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Santhosh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vaibhav</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Team 6</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Project 7</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oliver</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Team 7</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Project 8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sketch </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>For Real</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Team 8</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Project 9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Addison's Car</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Team 9</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Project 10</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandon Aiyuk's </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Trade</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Team 10</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,182 +1090,6 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Project 7</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Benjamin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Oliver</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Team 7</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Project 8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sketch </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>For Real</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Team 8</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Project 9</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Addison's Car</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Team 9</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Project 10</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brandon Aiyuk's </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Trade</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Team 10</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="490">
   <si>
     <t>Date</t>
   </si>
@@ -1420,33 +1420,18 @@
     <t>Key Updates</t>
   </si>
   <si>
-    <t>adid001</t>
-  </si>
-  <si>
     <t>Completed on time</t>
   </si>
   <si>
-    <t>adid002</t>
-  </si>
-  <si>
     <t>Minor delays</t>
   </si>
   <si>
-    <t>adid003</t>
-  </si>
-  <si>
     <t>On track</t>
   </si>
   <si>
-    <t>adid004</t>
-  </si>
-  <si>
     <t>Completed early</t>
   </si>
   <si>
-    <t>adid005</t>
-  </si>
-  <si>
     <t>On hold</t>
   </si>
   <si>
@@ -1456,187 +1441,52 @@
     <t>Mary Jones</t>
   </si>
   <si>
-    <t>adid006</t>
-  </si>
-  <si>
-    <t>adid007</t>
-  </si>
-  <si>
-    <t>adid008</t>
-  </si>
-  <si>
-    <t>adid009</t>
-  </si>
-  <si>
-    <t>adid010</t>
-  </si>
-  <si>
     <t>Lisa Wong</t>
   </si>
   <si>
     <t>Tom White</t>
   </si>
   <si>
-    <t>adid011</t>
-  </si>
-  <si>
-    <t>adid012</t>
-  </si>
-  <si>
-    <t>adid013</t>
-  </si>
-  <si>
-    <t>adid014</t>
-  </si>
-  <si>
-    <t>adid015</t>
-  </si>
-  <si>
     <t>John Brown</t>
   </si>
   <si>
     <t>Anna Green</t>
   </si>
   <si>
-    <t>adid016</t>
-  </si>
-  <si>
-    <t>adid017</t>
-  </si>
-  <si>
-    <t>adid018</t>
-  </si>
-  <si>
-    <t>adid019</t>
-  </si>
-  <si>
-    <t>adid020</t>
-  </si>
-  <si>
     <t>Susan Davis</t>
   </si>
   <si>
     <t>Paul Adams</t>
   </si>
   <si>
-    <t>adid021</t>
-  </si>
-  <si>
-    <t>adid022</t>
-  </si>
-  <si>
-    <t>adid023</t>
-  </si>
-  <si>
-    <t>adid024</t>
-  </si>
-  <si>
-    <t>adid025</t>
-  </si>
-  <si>
     <t>James Wilson</t>
   </si>
   <si>
     <t>Emily Johnson</t>
   </si>
   <si>
-    <t>adid026</t>
-  </si>
-  <si>
-    <t>adid027</t>
-  </si>
-  <si>
-    <t>adid028</t>
-  </si>
-  <si>
-    <t>adid029</t>
-  </si>
-  <si>
-    <t>adid030</t>
-  </si>
-  <si>
     <t>Chris Johnson</t>
   </si>
   <si>
     <t>Nina Brown</t>
   </si>
   <si>
-    <t>adid031</t>
-  </si>
-  <si>
-    <t>adid032</t>
-  </si>
-  <si>
-    <t>adid033</t>
-  </si>
-  <si>
-    <t>adid034</t>
-  </si>
-  <si>
-    <t>adid035</t>
-  </si>
-  <si>
     <t>Karen Taylor</t>
   </si>
   <si>
     <t>Steve Martin</t>
   </si>
   <si>
-    <t>adid036</t>
-  </si>
-  <si>
-    <t>adid037</t>
-  </si>
-  <si>
-    <t>adid038</t>
-  </si>
-  <si>
-    <t>adid039</t>
-  </si>
-  <si>
-    <t>adid040</t>
-  </si>
-  <si>
     <t>Paul Edwards</t>
   </si>
   <si>
     <t>Maria Hernandez</t>
   </si>
   <si>
-    <t>adid041</t>
-  </si>
-  <si>
-    <t>adid042</t>
-  </si>
-  <si>
-    <t>adid043</t>
-  </si>
-  <si>
-    <t>adid044</t>
-  </si>
-  <si>
-    <t>adid045</t>
-  </si>
-  <si>
     <t>David Clark</t>
   </si>
   <si>
     <t>Julia Rogers</t>
-  </si>
-  <si>
-    <t>adid046</t>
-  </si>
-  <si>
-    <t>adid047</t>
-  </si>
-  <si>
-    <t>adid048</t>
-  </si>
-  <si>
-    <t>adid049</t>
-  </si>
-  <si>
-    <t>adid050</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1739,6 +1589,9 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2163,14 +2016,14 @@
       <c r="J2" s="8">
         <v>1001</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>143</v>
+      <c r="K2" s="11">
+        <v>1001</v>
+      </c>
+      <c r="L2" s="11">
+        <v>2001</v>
+      </c>
+      <c r="M2" s="11">
+        <v>3001</v>
       </c>
       <c r="N2" s="3">
         <v>44937</v>
@@ -2188,7 +2041,7 @@
         <v>44990</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>16</v>
@@ -2225,14 +2078,14 @@
       <c r="J3" s="8">
         <v>1002</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>164</v>
+      <c r="K3" s="11">
+        <v>1002</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2002</v>
+      </c>
+      <c r="M3" s="11">
+        <v>3002</v>
       </c>
       <c r="N3" s="3">
         <v>44942</v>
@@ -2250,7 +2103,7 @@
         <v>44995</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>16</v>
@@ -2287,14 +2140,14 @@
       <c r="J4" s="8">
         <v>1003</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>143</v>
+      <c r="K4" s="11">
+        <v>1003</v>
+      </c>
+      <c r="L4" s="11">
+        <v>2003</v>
+      </c>
+      <c r="M4" s="11">
+        <v>3003</v>
       </c>
       <c r="N4" s="3">
         <v>44947</v>
@@ -2312,7 +2165,7 @@
         <v>45000</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>16</v>
@@ -2349,14 +2202,14 @@
       <c r="J5" s="8">
         <v>1004</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>143</v>
+      <c r="K5" s="11">
+        <v>1004</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2004</v>
+      </c>
+      <c r="M5" s="11">
+        <v>3004</v>
       </c>
       <c r="N5" s="3">
         <v>44952</v>
@@ -2374,7 +2227,7 @@
         <v>45005</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>16</v>
@@ -2411,14 +2264,14 @@
       <c r="J6" s="8">
         <v>1005</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>164</v>
+      <c r="K6" s="11">
+        <v>1005</v>
+      </c>
+      <c r="L6" s="11">
+        <v>2005</v>
+      </c>
+      <c r="M6" s="11">
+        <v>3005</v>
       </c>
       <c r="N6" s="3">
         <v>44957</v>
@@ -2436,7 +2289,7 @@
         <v>45010</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T6" s="4" t="s">
         <v>16</v>
@@ -2447,10 +2300,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>336</v>
@@ -2473,14 +2326,14 @@
       <c r="J7" s="8">
         <v>1006</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>143</v>
+      <c r="K7" s="11">
+        <v>1006</v>
+      </c>
+      <c r="L7" s="11">
+        <v>2006</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3006</v>
       </c>
       <c r="N7" s="3">
         <v>44968</v>
@@ -2498,7 +2351,7 @@
         <v>45021</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>16</v>
@@ -2509,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>336</v>
@@ -2535,14 +2388,14 @@
       <c r="J8" s="8">
         <v>1007</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>164</v>
+      <c r="K8" s="11">
+        <v>1007</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2007</v>
+      </c>
+      <c r="M8" s="11">
+        <v>3007</v>
       </c>
       <c r="N8" s="3">
         <v>44973</v>
@@ -2560,7 +2413,7 @@
         <v>45026</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>16</v>
@@ -2571,10 +2424,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>336</v>
@@ -2597,14 +2450,14 @@
       <c r="J9" s="8">
         <v>1008</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>143</v>
+      <c r="K9" s="11">
+        <v>1008</v>
+      </c>
+      <c r="L9" s="11">
+        <v>2008</v>
+      </c>
+      <c r="M9" s="11">
+        <v>3008</v>
       </c>
       <c r="N9" s="3">
         <v>44978</v>
@@ -2622,7 +2475,7 @@
         <v>45031</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>16</v>
@@ -2633,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>336</v>
@@ -2659,14 +2512,14 @@
       <c r="J10" s="8">
         <v>1009</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>164</v>
+      <c r="K10" s="11">
+        <v>1009</v>
+      </c>
+      <c r="L10" s="11">
+        <v>2009</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3009</v>
       </c>
       <c r="N10" s="3">
         <v>44983</v>
@@ -2684,7 +2537,7 @@
         <v>45036</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>16</v>
@@ -2695,10 +2548,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>336</v>
@@ -2721,14 +2574,14 @@
       <c r="J11" s="8">
         <v>1010</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>143</v>
+      <c r="K11" s="11">
+        <v>1010</v>
+      </c>
+      <c r="L11" s="11">
+        <v>2010</v>
+      </c>
+      <c r="M11" s="11">
+        <v>3010</v>
       </c>
       <c r="N11" s="3">
         <v>44987</v>
@@ -2746,7 +2599,7 @@
         <v>45041</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>16</v>
@@ -2757,10 +2610,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>343</v>
@@ -2783,14 +2636,14 @@
       <c r="J12" s="8">
         <v>1011</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>164</v>
+      <c r="K12" s="11">
+        <v>1011</v>
+      </c>
+      <c r="L12" s="11">
+        <v>2011</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3011</v>
       </c>
       <c r="N12" s="3">
         <v>44996</v>
@@ -2808,7 +2661,7 @@
         <v>45051</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>16</v>
@@ -2819,10 +2672,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>343</v>
@@ -2845,14 +2698,14 @@
       <c r="J13" s="8">
         <v>1012</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>143</v>
+      <c r="K13" s="11">
+        <v>1012</v>
+      </c>
+      <c r="L13" s="11">
+        <v>2012</v>
+      </c>
+      <c r="M13" s="11">
+        <v>3012</v>
       </c>
       <c r="N13" s="3">
         <v>45001</v>
@@ -2870,7 +2723,7 @@
         <v>45056</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>16</v>
@@ -2881,10 +2734,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>343</v>
@@ -2907,14 +2760,14 @@
       <c r="J14" s="8">
         <v>1013</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>164</v>
+      <c r="K14" s="11">
+        <v>1013</v>
+      </c>
+      <c r="L14" s="11">
+        <v>2013</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3013</v>
       </c>
       <c r="N14" s="3">
         <v>45006</v>
@@ -2932,7 +2785,7 @@
         <v>45061</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>16</v>
@@ -2943,10 +2796,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>343</v>
@@ -2969,14 +2822,14 @@
       <c r="J15" s="8">
         <v>1014</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>143</v>
+      <c r="K15" s="11">
+        <v>1014</v>
+      </c>
+      <c r="L15" s="11">
+        <v>2014</v>
+      </c>
+      <c r="M15" s="11">
+        <v>3014</v>
       </c>
       <c r="N15" s="3">
         <v>45011</v>
@@ -2994,7 +2847,7 @@
         <v>45066</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>16</v>
@@ -3005,10 +2858,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>343</v>
@@ -3031,14 +2884,14 @@
       <c r="J16" s="8">
         <v>1015</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>164</v>
+      <c r="K16" s="11">
+        <v>1015</v>
+      </c>
+      <c r="L16" s="11">
+        <v>2015</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3015</v>
       </c>
       <c r="N16" s="3">
         <v>45016</v>
@@ -3056,7 +2909,7 @@
         <v>45071</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>16</v>
@@ -3067,10 +2920,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>348</v>
@@ -3093,14 +2946,14 @@
       <c r="J17" s="8">
         <v>1016</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>143</v>
+      <c r="K17" s="11">
+        <v>1016</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2016</v>
+      </c>
+      <c r="M17" s="11">
+        <v>3016</v>
       </c>
       <c r="N17" s="3">
         <v>45027</v>
@@ -3118,7 +2971,7 @@
         <v>45082</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>16</v>
@@ -3129,10 +2982,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>348</v>
@@ -3155,14 +3008,14 @@
       <c r="J18" s="8">
         <v>1017</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>164</v>
+      <c r="K18" s="11">
+        <v>1017</v>
+      </c>
+      <c r="L18" s="11">
+        <v>2017</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3017</v>
       </c>
       <c r="N18" s="3">
         <v>45032</v>
@@ -3180,7 +3033,7 @@
         <v>45087</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>16</v>
@@ -3191,10 +3044,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>348</v>
@@ -3217,14 +3070,14 @@
       <c r="J19" s="8">
         <v>1018</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>143</v>
+      <c r="K19" s="11">
+        <v>1018</v>
+      </c>
+      <c r="L19" s="11">
+        <v>2018</v>
+      </c>
+      <c r="M19" s="11">
+        <v>3018</v>
       </c>
       <c r="N19" s="3">
         <v>45037</v>
@@ -3242,7 +3095,7 @@
         <v>45092</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T19" s="4" t="s">
         <v>16</v>
@@ -3253,10 +3106,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>348</v>
@@ -3279,14 +3132,14 @@
       <c r="J20" s="8">
         <v>1019</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>164</v>
+      <c r="K20" s="11">
+        <v>1019</v>
+      </c>
+      <c r="L20" s="11">
+        <v>2019</v>
+      </c>
+      <c r="M20" s="11">
+        <v>3019</v>
       </c>
       <c r="N20" s="3">
         <v>45042</v>
@@ -3304,7 +3157,7 @@
         <v>45097</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>16</v>
@@ -3315,10 +3168,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>348</v>
@@ -3341,14 +3194,14 @@
       <c r="J21" s="8">
         <v>1020</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>143</v>
+      <c r="K21" s="11">
+        <v>1020</v>
+      </c>
+      <c r="L21" s="11">
+        <v>2020</v>
+      </c>
+      <c r="M21" s="11">
+        <v>3020</v>
       </c>
       <c r="N21" s="3">
         <v>45047</v>
@@ -3366,7 +3219,7 @@
         <v>45102</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>16</v>
@@ -3377,10 +3230,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>353</v>
@@ -3403,14 +3256,14 @@
       <c r="J22" s="8">
         <v>1021</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>164</v>
+      <c r="K22" s="11">
+        <v>1021</v>
+      </c>
+      <c r="L22" s="11">
+        <v>2021</v>
+      </c>
+      <c r="M22" s="11">
+        <v>3021</v>
       </c>
       <c r="N22" s="3">
         <v>45057</v>
@@ -3428,7 +3281,7 @@
         <v>45112</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T22" s="4" t="s">
         <v>16</v>
@@ -3439,10 +3292,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>353</v>
@@ -3465,14 +3318,14 @@
       <c r="J23" s="8">
         <v>1022</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>143</v>
+      <c r="K23" s="11">
+        <v>1022</v>
+      </c>
+      <c r="L23" s="11">
+        <v>2022</v>
+      </c>
+      <c r="M23" s="11">
+        <v>3022</v>
       </c>
       <c r="N23" s="3">
         <v>45062</v>
@@ -3490,7 +3343,7 @@
         <v>45117</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>16</v>
@@ -3501,10 +3354,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>353</v>
@@ -3527,14 +3380,14 @@
       <c r="J24" s="8">
         <v>1023</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>164</v>
+      <c r="K24" s="11">
+        <v>1023</v>
+      </c>
+      <c r="L24" s="11">
+        <v>2023</v>
+      </c>
+      <c r="M24" s="11">
+        <v>3023</v>
       </c>
       <c r="N24" s="3">
         <v>45067</v>
@@ -3552,7 +3405,7 @@
         <v>45122</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>16</v>
@@ -3563,10 +3416,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>353</v>
@@ -3589,14 +3442,14 @@
       <c r="J25" s="8">
         <v>1024</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>143</v>
+      <c r="K25" s="11">
+        <v>1024</v>
+      </c>
+      <c r="L25" s="11">
+        <v>2024</v>
+      </c>
+      <c r="M25" s="11">
+        <v>3024</v>
       </c>
       <c r="N25" s="3">
         <v>45072</v>
@@ -3614,7 +3467,7 @@
         <v>45127</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>16</v>
@@ -3625,10 +3478,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>353</v>
@@ -3651,14 +3504,14 @@
       <c r="J26" s="8">
         <v>1025</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>164</v>
+      <c r="K26" s="11">
+        <v>1025</v>
+      </c>
+      <c r="L26" s="11">
+        <v>2025</v>
+      </c>
+      <c r="M26" s="11">
+        <v>3025</v>
       </c>
       <c r="N26" s="3">
         <v>45077</v>
@@ -3676,7 +3529,7 @@
         <v>45132</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T26" s="4" t="s">
         <v>16</v>
@@ -3687,10 +3540,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>358</v>
@@ -3713,14 +3566,14 @@
       <c r="J27" s="8">
         <v>1026</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>143</v>
+      <c r="K27" s="11">
+        <v>1026</v>
+      </c>
+      <c r="L27" s="11">
+        <v>2026</v>
+      </c>
+      <c r="M27" s="11">
+        <v>3026</v>
       </c>
       <c r="N27" s="3">
         <v>45088</v>
@@ -3738,7 +3591,7 @@
         <v>45143</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T27" s="4" t="s">
         <v>16</v>
@@ -3749,10 +3602,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>358</v>
@@ -3775,14 +3628,14 @@
       <c r="J28" s="8">
         <v>1027</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>164</v>
+      <c r="K28" s="11">
+        <v>1027</v>
+      </c>
+      <c r="L28" s="11">
+        <v>2027</v>
+      </c>
+      <c r="M28" s="11">
+        <v>3027</v>
       </c>
       <c r="N28" s="3">
         <v>45093</v>
@@ -3800,7 +3653,7 @@
         <v>45148</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T28" s="4" t="s">
         <v>16</v>
@@ -3811,10 +3664,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>358</v>
@@ -3837,14 +3690,14 @@
       <c r="J29" s="8">
         <v>1028</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>143</v>
+      <c r="K29" s="11">
+        <v>1028</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2028</v>
+      </c>
+      <c r="M29" s="11">
+        <v>3028</v>
       </c>
       <c r="N29" s="3">
         <v>45098</v>
@@ -3862,7 +3715,7 @@
         <v>45153</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T29" s="4" t="s">
         <v>16</v>
@@ -3873,10 +3726,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>358</v>
@@ -3899,14 +3752,14 @@
       <c r="J30" s="8">
         <v>1029</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>164</v>
+      <c r="K30" s="11">
+        <v>1029</v>
+      </c>
+      <c r="L30" s="11">
+        <v>2029</v>
+      </c>
+      <c r="M30" s="11">
+        <v>3029</v>
       </c>
       <c r="N30" s="3">
         <v>45103</v>
@@ -3924,7 +3777,7 @@
         <v>45158</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T30" s="4" t="s">
         <v>16</v>
@@ -3935,10 +3788,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>358</v>
@@ -3961,14 +3814,14 @@
       <c r="J31" s="8">
         <v>1030</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>143</v>
+      <c r="K31" s="11">
+        <v>1030</v>
+      </c>
+      <c r="L31" s="11">
+        <v>2030</v>
+      </c>
+      <c r="M31" s="11">
+        <v>3030</v>
       </c>
       <c r="N31" s="3">
         <v>45108</v>
@@ -3986,7 +3839,7 @@
         <v>45163</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T31" s="4" t="s">
         <v>16</v>
@@ -3997,10 +3850,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>363</v>
@@ -4023,14 +3876,14 @@
       <c r="J32" s="8">
         <v>1031</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>164</v>
+      <c r="K32" s="11">
+        <v>1031</v>
+      </c>
+      <c r="L32" s="11">
+        <v>2031</v>
+      </c>
+      <c r="M32" s="11">
+        <v>3031</v>
       </c>
       <c r="N32" s="3">
         <v>45118</v>
@@ -4048,7 +3901,7 @@
         <v>45174</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>16</v>
@@ -4059,10 +3912,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>363</v>
@@ -4085,14 +3938,14 @@
       <c r="J33" s="8">
         <v>1032</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>143</v>
+      <c r="K33" s="11">
+        <v>1032</v>
+      </c>
+      <c r="L33" s="11">
+        <v>2032</v>
+      </c>
+      <c r="M33" s="11">
+        <v>3032</v>
       </c>
       <c r="N33" s="3">
         <v>45123</v>
@@ -4110,7 +3963,7 @@
         <v>45179</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T33" s="4" t="s">
         <v>16</v>
@@ -4121,10 +3974,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>363</v>
@@ -4147,14 +4000,14 @@
       <c r="J34" s="8">
         <v>1033</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>164</v>
+      <c r="K34" s="11">
+        <v>1033</v>
+      </c>
+      <c r="L34" s="11">
+        <v>2033</v>
+      </c>
+      <c r="M34" s="11">
+        <v>3033</v>
       </c>
       <c r="N34" s="3">
         <v>45128</v>
@@ -4172,7 +4025,7 @@
         <v>45184</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T34" s="4" t="s">
         <v>16</v>
@@ -4183,10 +4036,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>363</v>
@@ -4209,14 +4062,14 @@
       <c r="J35" s="8">
         <v>1034</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>143</v>
+      <c r="K35" s="11">
+        <v>1034</v>
+      </c>
+      <c r="L35" s="11">
+        <v>2034</v>
+      </c>
+      <c r="M35" s="11">
+        <v>3034</v>
       </c>
       <c r="N35" s="3">
         <v>45133</v>
@@ -4234,7 +4087,7 @@
         <v>45189</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T35" s="4" t="s">
         <v>16</v>
@@ -4245,10 +4098,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>363</v>
@@ -4271,14 +4124,14 @@
       <c r="J36" s="8">
         <v>1035</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>164</v>
+      <c r="K36" s="11">
+        <v>1035</v>
+      </c>
+      <c r="L36" s="11">
+        <v>2035</v>
+      </c>
+      <c r="M36" s="11">
+        <v>3035</v>
       </c>
       <c r="N36" s="3">
         <v>45138</v>
@@ -4296,7 +4149,7 @@
         <v>45194</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T36" s="4" t="s">
         <v>16</v>
@@ -4307,10 +4160,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>369</v>
@@ -4333,14 +4186,14 @@
       <c r="J37" s="8">
         <v>1036</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>143</v>
+      <c r="K37" s="11">
+        <v>1036</v>
+      </c>
+      <c r="L37" s="11">
+        <v>2036</v>
+      </c>
+      <c r="M37" s="11">
+        <v>3036</v>
       </c>
       <c r="N37" s="3">
         <v>45149</v>
@@ -4358,7 +4211,7 @@
         <v>45204</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T37" s="4" t="s">
         <v>16</v>
@@ -4369,10 +4222,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>369</v>
@@ -4395,14 +4248,14 @@
       <c r="J38" s="8">
         <v>1037</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>164</v>
+      <c r="K38" s="11">
+        <v>1037</v>
+      </c>
+      <c r="L38" s="11">
+        <v>2037</v>
+      </c>
+      <c r="M38" s="11">
+        <v>3037</v>
       </c>
       <c r="N38" s="3">
         <v>45154</v>
@@ -4420,7 +4273,7 @@
         <v>45209</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>16</v>
@@ -4431,10 +4284,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>369</v>
@@ -4457,14 +4310,14 @@
       <c r="J39" s="8">
         <v>1038</v>
       </c>
-      <c r="K39" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>143</v>
+      <c r="K39" s="11">
+        <v>1038</v>
+      </c>
+      <c r="L39" s="11">
+        <v>2038</v>
+      </c>
+      <c r="M39" s="11">
+        <v>3038</v>
       </c>
       <c r="N39" s="3">
         <v>45159</v>
@@ -4482,7 +4335,7 @@
         <v>45214</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>16</v>
@@ -4493,10 +4346,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>369</v>
@@ -4519,14 +4372,14 @@
       <c r="J40" s="8">
         <v>1039</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>164</v>
+      <c r="K40" s="11">
+        <v>1039</v>
+      </c>
+      <c r="L40" s="11">
+        <v>2039</v>
+      </c>
+      <c r="M40" s="11">
+        <v>3039</v>
       </c>
       <c r="N40" s="3">
         <v>45164</v>
@@ -4544,7 +4397,7 @@
         <v>45219</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>16</v>
@@ -4555,10 +4408,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>369</v>
@@ -4581,14 +4434,14 @@
       <c r="J41" s="8">
         <v>1040</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>143</v>
+      <c r="K41" s="11">
+        <v>1040</v>
+      </c>
+      <c r="L41" s="11">
+        <v>2040</v>
+      </c>
+      <c r="M41" s="11">
+        <v>3040</v>
       </c>
       <c r="N41" s="3">
         <v>45169</v>
@@ -4606,7 +4459,7 @@
         <v>45224</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>16</v>
@@ -4617,10 +4470,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>374</v>
@@ -4643,14 +4496,14 @@
       <c r="J42" s="8">
         <v>1041</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>164</v>
+      <c r="K42" s="11">
+        <v>1041</v>
+      </c>
+      <c r="L42" s="11">
+        <v>2041</v>
+      </c>
+      <c r="M42" s="11">
+        <v>3041</v>
       </c>
       <c r="N42" s="3">
         <v>45180</v>
@@ -4668,7 +4521,7 @@
         <v>45235</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>16</v>
@@ -4679,10 +4532,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>374</v>
@@ -4705,14 +4558,14 @@
       <c r="J43" s="8">
         <v>1042</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>143</v>
+      <c r="K43" s="11">
+        <v>1042</v>
+      </c>
+      <c r="L43" s="11">
+        <v>2042</v>
+      </c>
+      <c r="M43" s="11">
+        <v>3042</v>
       </c>
       <c r="N43" s="3">
         <v>45185</v>
@@ -4730,7 +4583,7 @@
         <v>45240</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>16</v>
@@ -4741,10 +4594,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>374</v>
@@ -4767,14 +4620,14 @@
       <c r="J44" s="8">
         <v>1043</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>164</v>
+      <c r="K44" s="11">
+        <v>1043</v>
+      </c>
+      <c r="L44" s="11">
+        <v>2043</v>
+      </c>
+      <c r="M44" s="11">
+        <v>3043</v>
       </c>
       <c r="N44" s="3">
         <v>45190</v>
@@ -4792,7 +4645,7 @@
         <v>45245</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>16</v>
@@ -4803,10 +4656,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>374</v>
@@ -4829,14 +4682,14 @@
       <c r="J45" s="8">
         <v>1044</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>143</v>
+      <c r="K45" s="11">
+        <v>1044</v>
+      </c>
+      <c r="L45" s="11">
+        <v>2044</v>
+      </c>
+      <c r="M45" s="11">
+        <v>3044</v>
       </c>
       <c r="N45" s="3">
         <v>45195</v>
@@ -4854,7 +4707,7 @@
         <v>45250</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>16</v>
@@ -4865,10 +4718,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>374</v>
@@ -4891,14 +4744,14 @@
       <c r="J46" s="8">
         <v>1045</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>164</v>
+      <c r="K46" s="11">
+        <v>1045</v>
+      </c>
+      <c r="L46" s="11">
+        <v>2045</v>
+      </c>
+      <c r="M46" s="11">
+        <v>3045</v>
       </c>
       <c r="N46" s="3">
         <v>45200</v>
@@ -4916,7 +4769,7 @@
         <v>45255</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>16</v>
@@ -4927,10 +4780,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>379</v>
@@ -4953,14 +4806,14 @@
       <c r="J47" s="8">
         <v>1046</v>
       </c>
-      <c r="K47" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>143</v>
+      <c r="K47" s="11">
+        <v>1046</v>
+      </c>
+      <c r="L47" s="11">
+        <v>2046</v>
+      </c>
+      <c r="M47" s="11">
+        <v>3046</v>
       </c>
       <c r="N47" s="3">
         <v>45210</v>
@@ -4978,7 +4831,7 @@
         <v>45265</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>16</v>
@@ -4989,10 +4842,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>379</v>
@@ -5015,14 +4868,14 @@
       <c r="J48" s="8">
         <v>1047</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>164</v>
+      <c r="K48" s="11">
+        <v>1047</v>
+      </c>
+      <c r="L48" s="11">
+        <v>2047</v>
+      </c>
+      <c r="M48" s="11">
+        <v>3047</v>
       </c>
       <c r="N48" s="3">
         <v>45215</v>
@@ -5040,7 +4893,7 @@
         <v>45270</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>16</v>
@@ -5051,10 +4904,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>379</v>
@@ -5077,14 +4930,14 @@
       <c r="J49" s="8">
         <v>1048</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>143</v>
+      <c r="K49" s="11">
+        <v>1048</v>
+      </c>
+      <c r="L49" s="11">
+        <v>2048</v>
+      </c>
+      <c r="M49" s="11">
+        <v>3048</v>
       </c>
       <c r="N49" s="3">
         <v>45220</v>
@@ -5102,7 +4955,7 @@
         <v>45275</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>16</v>
@@ -5113,10 +4966,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>379</v>
@@ -5139,14 +4992,14 @@
       <c r="J50" s="8">
         <v>1049</v>
       </c>
-      <c r="K50" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>164</v>
+      <c r="K50" s="11">
+        <v>1049</v>
+      </c>
+      <c r="L50" s="11">
+        <v>2049</v>
+      </c>
+      <c r="M50" s="11">
+        <v>3049</v>
       </c>
       <c r="N50" s="3">
         <v>45225</v>
@@ -5164,7 +5017,7 @@
         <v>45280</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>16</v>
@@ -5175,10 +5028,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>533</v>
+        <v>488</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>379</v>
@@ -5201,14 +5054,14 @@
       <c r="J51" s="8">
         <v>1050</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>143</v>
+      <c r="K51" s="11">
+        <v>1050</v>
+      </c>
+      <c r="L51" s="11">
+        <v>2050</v>
+      </c>
+      <c r="M51" s="11">
+        <v>3050</v>
       </c>
       <c r="N51" s="3">
         <v>45230</v>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -5041,6 +5041,9 @@
           <t>2023-12-20 00:00:00</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="n">
         <v>0</v>
       </c>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,11 @@
           <t>Interns</t>
         </is>
       </c>
+      <c r="V1" s="12" t="inlineStr">
+        <is>
+          <t>originalIndex</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -698,6 +703,9 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -787,6 +795,9 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -876,6 +887,9 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -965,6 +979,9 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1054,6 +1071,9 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
+      <c r="V6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1143,6 +1163,9 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
+      <c r="V7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1232,6 +1255,9 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
+      <c r="V8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1321,6 +1347,9 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1410,6 +1439,9 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1499,6 +1531,9 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1588,6 +1623,9 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
+      <c r="V12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1677,6 +1715,9 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
+      <c r="V13" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1766,6 +1807,9 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
+      <c r="V14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1855,6 +1899,9 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
+      <c r="V15" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1944,6 +1991,9 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
+      <c r="V16" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2033,6 +2083,9 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
+      <c r="V17" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2122,6 +2175,9 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
+      <c r="V18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2211,6 +2267,9 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2300,6 +2359,9 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
+      <c r="V20" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2389,6 +2451,9 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
+      <c r="V21" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2478,6 +2543,9 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
+      <c r="V22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2567,6 +2635,9 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
+      <c r="V23" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2656,6 +2727,9 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
+      <c r="V24" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2745,6 +2819,9 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
+      <c r="V25" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2834,6 +2911,9 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
+      <c r="V26" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2923,6 +3003,9 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
+      <c r="V27" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3012,6 +3095,9 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
+      <c r="V28" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3101,6 +3187,9 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
+      <c r="V29" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3190,6 +3279,9 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
+      <c r="V30" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3279,6 +3371,9 @@
       <c r="U31" t="n">
         <v>0</v>
       </c>
+      <c r="V31" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3368,6 +3463,9 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
+      <c r="V32" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3457,6 +3555,9 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
+      <c r="V33" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3546,6 +3647,9 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
+      <c r="V34" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3635,6 +3739,9 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
+      <c r="V35" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3724,6 +3831,9 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
+      <c r="V36" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3813,6 +3923,9 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
+      <c r="V37" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3902,6 +4015,9 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
+      <c r="V38" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3991,6 +4107,9 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
+      <c r="V39" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4080,6 +4199,9 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
+      <c r="V40" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4169,6 +4291,9 @@
       <c r="U41" t="n">
         <v>0</v>
       </c>
+      <c r="V41" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4258,6 +4383,9 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4347,6 +4475,9 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
+      <c r="V43" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4436,6 +4567,9 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
+      <c r="V44" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4525,6 +4659,9 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
+      <c r="V45" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4614,6 +4751,9 @@
       <c r="U46" t="n">
         <v>0</v>
       </c>
+      <c r="V46" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4703,6 +4843,9 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
+      <c r="V47" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4792,6 +4935,9 @@
       <c r="U48" t="n">
         <v>0</v>
       </c>
+      <c r="V48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4881,6 +5027,9 @@
       <c r="U49" t="n">
         <v>0</v>
       </c>
+      <c r="V49" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4970,6 +5119,9 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5041,11 +5193,22 @@
           <t>2023-12-20 00:00:00</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>12/25/2023</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="U51" t="n">
         <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="V1" s="12" t="inlineStr">
         <is>
-          <t>originalIndex</t>
+          <t>Banana Chips</t>
         </is>
       </c>
     </row>
@@ -703,8 +703,10 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mickey</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -795,8 +797,10 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
-      <c r="V3" t="n">
-        <v>1</v>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -887,9 +891,7 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -979,9 +981,7 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1071,9 +1071,7 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1163,9 +1161,7 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
-      <c r="V7" t="n">
-        <v>5</v>
-      </c>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1255,9 +1251,7 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1347,9 +1341,7 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
-      <c r="V9" t="n">
-        <v>7</v>
-      </c>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1439,9 +1431,7 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="n">
-        <v>8</v>
-      </c>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1531,9 +1521,7 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
-      <c r="V11" t="n">
-        <v>9</v>
-      </c>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1623,9 +1611,7 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
-        <v>10</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1715,9 +1701,7 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
-        <v>11</v>
-      </c>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1807,9 +1791,7 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
-        <v>12</v>
-      </c>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1899,9 +1881,7 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
-        <v>13</v>
-      </c>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1991,9 +1971,7 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>14</v>
-      </c>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2083,9 +2061,7 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
-        <v>15</v>
-      </c>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2175,9 +2151,7 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V18" t="n">
-        <v>16</v>
-      </c>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2267,9 +2241,7 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
-      <c r="V19" t="n">
-        <v>17</v>
-      </c>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2359,9 +2331,7 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
-      <c r="V20" t="n">
-        <v>18</v>
-      </c>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2451,9 +2421,7 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="n">
-        <v>19</v>
-      </c>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2543,9 +2511,7 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
-      <c r="V22" t="n">
-        <v>20</v>
-      </c>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2635,9 +2601,7 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="n">
-        <v>21</v>
-      </c>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2727,9 +2691,7 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="n">
-        <v>22</v>
-      </c>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2819,9 +2781,7 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
-      <c r="V25" t="n">
-        <v>23</v>
-      </c>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2911,9 +2871,7 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
-      <c r="V26" t="n">
-        <v>24</v>
-      </c>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3003,9 +2961,7 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
-      <c r="V27" t="n">
-        <v>25</v>
-      </c>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3095,9 +3051,7 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
-      <c r="V28" t="n">
-        <v>26</v>
-      </c>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3187,9 +3141,7 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
-      <c r="V29" t="n">
-        <v>27</v>
-      </c>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3279,9 +3231,7 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
-      <c r="V30" t="n">
-        <v>28</v>
-      </c>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3371,9 +3321,7 @@
       <c r="U31" t="n">
         <v>0</v>
       </c>
-      <c r="V31" t="n">
-        <v>29</v>
-      </c>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3463,9 +3411,7 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
-      <c r="V32" t="n">
-        <v>30</v>
-      </c>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3555,9 +3501,7 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
-        <v>31</v>
-      </c>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3647,9 +3591,7 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
-      <c r="V34" t="n">
-        <v>32</v>
-      </c>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3739,9 +3681,7 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
-      <c r="V35" t="n">
-        <v>33</v>
-      </c>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3831,9 +3771,7 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
-      <c r="V36" t="n">
-        <v>34</v>
-      </c>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3923,9 +3861,7 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
-      <c r="V37" t="n">
-        <v>35</v>
-      </c>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4015,9 +3951,7 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
-      <c r="V38" t="n">
-        <v>36</v>
-      </c>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4107,9 +4041,7 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
-      <c r="V39" t="n">
-        <v>37</v>
-      </c>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4199,9 +4131,7 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
-      <c r="V40" t="n">
-        <v>38</v>
-      </c>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4291,9 +4221,7 @@
       <c r="U41" t="n">
         <v>0</v>
       </c>
-      <c r="V41" t="n">
-        <v>39</v>
-      </c>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4383,9 +4311,7 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
-      <c r="V42" t="n">
-        <v>40</v>
-      </c>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4475,9 +4401,7 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
-        <v>41</v>
-      </c>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4567,9 +4491,7 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
-      <c r="V44" t="n">
-        <v>42</v>
-      </c>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4659,9 +4581,7 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
-        <v>43</v>
-      </c>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4751,9 +4671,7 @@
       <c r="U46" t="n">
         <v>0</v>
       </c>
-      <c r="V46" t="n">
-        <v>44</v>
-      </c>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4843,9 +4761,7 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
-      <c r="V47" t="n">
-        <v>45</v>
-      </c>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4935,9 +4851,7 @@
       <c r="U48" t="n">
         <v>0</v>
       </c>
-      <c r="V48" t="n">
-        <v>46</v>
-      </c>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5027,9 +4941,7 @@
       <c r="U49" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="n">
-        <v>47</v>
-      </c>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5119,9 +5031,7 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
-      <c r="V50" t="n">
-        <v>48</v>
-      </c>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5207,9 +5117,47 @@
       <c r="U51" t="n">
         <v>0</v>
       </c>
-      <c r="V51" t="n">
-        <v>49</v>
-      </c>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>frgsd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>trhhrftgn</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ytmhg</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8313,7 +8261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8589,11 +8537,6 @@
       </c>
       <c r="BB1" s="12" t="inlineStr">
         <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="BC1" s="12" t="inlineStr">
-        <is>
           <t>Project</t>
         </is>
       </c>
@@ -8860,11 +8803,6 @@
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
           <t>2024-01-01 00:00:00</t>
         </is>
       </c>
@@ -9131,11 +9069,6 @@
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
           <t>2024-01-02 00:00:00</t>
         </is>
       </c>
@@ -9402,11 +9335,6 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
           <t>2024-01-03 00:00:00</t>
         </is>
       </c>
@@ -9673,11 +9601,6 @@
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
           <t>2024-01-04 00:00:00</t>
         </is>
       </c>
@@ -9944,11 +9867,6 @@
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
           <t>2024-01-05 00:00:00</t>
         </is>
       </c>
@@ -10215,11 +10133,6 @@
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
           <t>2024-01-06 00:00:00</t>
         </is>
       </c>
@@ -10486,11 +10399,6 @@
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
           <t>2024-01-07 00:00:00</t>
         </is>
       </c>
@@ -10757,11 +10665,6 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
           <t>2024-01-08 00:00:00</t>
         </is>
       </c>
@@ -11028,11 +10931,6 @@
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
           <t>2024-01-09 00:00:00</t>
         </is>
       </c>
@@ -11299,11 +11197,6 @@
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
           <t>2024-01-10 00:00:00</t>
         </is>
       </c>
@@ -11570,11 +11463,6 @@
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
           <t>2024-01-11 00:00:00</t>
         </is>
       </c>
@@ -11841,11 +11729,6 @@
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
           <t>2024-01-12 00:00:00</t>
         </is>
       </c>
@@ -12112,11 +11995,6 @@
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
           <t>2024-01-13 00:00:00</t>
         </is>
       </c>
@@ -12382,11 +12260,6 @@
         </is>
       </c>
       <c r="BB15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
         <is>
           <t>2024-01-14 00:00:00</t>
         </is>
